--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_30/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_30/output.xlsx
@@ -511,16 +511,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.010433549</t>
+          <t>0.012858614</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.077702716</t>
+          <t>0.08830074</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -571,16 +571,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.028107362</t>
+          <t>0.028569842</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.12756893</t>
+          <t>0.12776443</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
